--- a/sheet_engine/test_sheets/students.xlsx
+++ b/sheet_engine/test_sheets/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLab\Projects\curie\sheet_engine\test_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761F656E-84BF-45C9-B703-019A447C1174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982306D6-A0FB-4C98-BE58-477B3075654E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>KETA SENIOR HIGH TECHNICAL SCHOOL</t>
   </si>
@@ -49,9 +49,6 @@
     <t>CLASS_ID</t>
   </si>
   <si>
-    <t>STREAM</t>
-  </si>
-  <si>
     <t>TRACK</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>GA11</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Gold</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
   </si>
   <si>
     <t>SC11</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -531,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M11" sqref="B11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,11 +537,11 @@
     <col min="5" max="5" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="9" width="9.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -565,10 +556,9 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -583,9 +573,8 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -600,9 +589,8 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -617,9 +605,8 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -634,9 +621,8 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -651,9 +637,8 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -668,9 +653,8 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -685,9 +669,8 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -704,9 +687,8 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
@@ -723,9 +705,8 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -739,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -765,81 +746,72 @@
       <c r="M11" t="s">
         <v>13</v>
       </c>
-      <c r="N11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>111</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>112</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:O8"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="A1:N8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/sheet_engine/test_sheets/students.xlsx
+++ b/sheet_engine/test_sheets/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLab\Projects\curie\sheet_engine\test_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982306D6-A0FB-4C98-BE58-477B3075654E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79901A10-C113-4C30-83EE-22C65004F274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="81">
   <si>
     <t>KETA SENIOR HIGH TECHNICAL SCHOOL</t>
   </si>
@@ -88,22 +88,181 @@
     <t>0249626071</t>
   </si>
   <si>
-    <t>EICT GEO</t>
-  </si>
-  <si>
     <t>Doe</t>
   </si>
   <si>
     <t>John</t>
   </si>
   <si>
-    <t>EICT</t>
-  </si>
-  <si>
     <t>Fia</t>
   </si>
   <si>
-    <t>SC11</t>
+    <t>111</t>
+  </si>
+  <si>
+    <t>GEO ECO EMATH GOV</t>
+  </si>
+  <si>
+    <t>Father Name</t>
+  </si>
+  <si>
+    <t>Mother Name</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>GEO EMATH GOV</t>
+  </si>
+  <si>
+    <t>GA12</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Aidoo</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Akpakli</t>
+  </si>
+  <si>
+    <t>FA CA BM ECO</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Ahiawodzi</t>
+  </si>
+  <si>
+    <t>Sedem</t>
+  </si>
+  <si>
+    <t>BM ECO FA</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>Agorkpa</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarshie </t>
+  </si>
+  <si>
+    <t>Elvis</t>
+  </si>
+  <si>
+    <t>PHY CHE EMATH</t>
+  </si>
+  <si>
+    <t>SCI11</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Amudzi</t>
+  </si>
+  <si>
+    <t>Aseye</t>
+  </si>
+  <si>
+    <t>EICT BIO EMATH</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaledzi </t>
+  </si>
+  <si>
+    <t>Veracity</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Sakey</t>
+  </si>
+  <si>
+    <t>Selasie</t>
+  </si>
+  <si>
+    <t>PHY CHE EMATH BIO</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Dzidula</t>
+  </si>
+  <si>
+    <t>Afexi</t>
+  </si>
+  <si>
+    <t>PHY CHE BIO</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azumah </t>
+  </si>
+  <si>
+    <t>Obed</t>
+  </si>
+  <si>
+    <t>PHY CHE BIO EMATH</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Eduku</t>
+  </si>
+  <si>
+    <t>Maranatha</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ofoe </t>
+  </si>
+  <si>
+    <t>Cindy</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klutsey </t>
+  </si>
+  <si>
+    <t>Yram</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Mensah</t>
+  </si>
+  <si>
+    <t>Adzoa</t>
   </si>
 </sst>
 </file>
@@ -159,8 +318,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -196,7 +355,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>284964</xdr:colOff>
+      <xdr:colOff>275439</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -222,6 +381,53 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4476750" y="47625"/>
+          <a:ext cx="1332714" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>275439</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD06161-DACE-4BC0-92B7-4965AF793C31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="47625"/>
           <a:ext cx="1332714" cy="1438275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -522,23 +728,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="B11:M11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="3"/>
+    <col min="12" max="12" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -707,104 +916,605 @@
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="2">
-        <v>111</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>112</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="L14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="H15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="G20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="M20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K21" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
